--- a/team_specific_matrix/Jarvis Christian_B.xlsx
+++ b/team_specific_matrix/Jarvis Christian_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2105263157894737</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C2">
-        <v>0.5263157894736842</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1578947368421053</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1052631578947368</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.375</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R7">
-        <v>0.125</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="S7">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1333333333333333</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06666666666666667</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R8">
-        <v>0.1333333333333333</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="S8">
-        <v>0.2666666666666667</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1692307692307692</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03076923076923077</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06153846153846154</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1846153846153846</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2461538461538462</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R10">
-        <v>0.06153846153846154</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S10">
-        <v>0.2461538461538462</v>
+        <v>0.2517482517482518</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09090909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K11">
         <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8571428571428571</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1428571428571428</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.125</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K15">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.125</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.06666666666666667</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J16">
-        <v>0.5333333333333333</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2666666666666667</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="I17">
-        <v>0.08</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J17">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.16</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.16</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.375</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.175</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="K19">
-        <v>0.075</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.075</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.175</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
   </sheetData>
